--- a/biology/Biologie cellulaire et moléculaire/Orthologie/Orthologie.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Orthologie/Orthologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie de l'évolution, une orthologie est un lien évolutif entre deux gènes présents chez deux espèces différentes.
 Deux séquences génétiques homologues de deux espèces différentes sont orthologues si elles descendent d'une séquence unique présente dans le dernier ancêtre commun aux deux espèces.
